--- a/biology/Zoologie/Ammomane_élégante/Ammomane_élégante.xlsx
+++ b/biology/Zoologie/Ammomane_élégante/Ammomane_élégante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ammomane_%C3%A9l%C3%A9gante</t>
+          <t>Ammomane_élégante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ammomanes cinctura
 L'Ammomane élégante (Ammomanes cinctura) est une espèce de passereaux qui appartient à la famille des alaudidés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ammomane_%C3%A9l%C3%A9gante</t>
+          <t>Ammomane_élégante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par l'ornithologue britannique John Gould en 1839, sous le nom initial de Melanocorypha cinctura.
-Synonymie
-Melanocorypha cinctura Gould, 1839 protonyme
-Ammomanes cincturus
-Taxinomie
-D'après le Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par l'ornithologue britannique John Gould en 1839, sous le nom initial de Melanocorypha cinctura.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ammomane_élégante</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ammomane_%C3%A9l%C3%A9gante</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Melanocorypha cinctura Gould, 1839 protonyme
+Ammomanes cincturus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ammomane_élégante</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ammomane_%C3%A9l%C3%A9gante</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après le Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes :
 Ammomanes cinctura cinctura  (John Gould, 1839) ; présente sur l'île du Cap-Vert ;
 Ammomanes cinctura arenicolor (Sundevall, 1850) ; des déserts d'Afrique du Nord jusqu'à la péninsule du Sinaï et à l'ouest de l'Arabie ;
 Ammomanes cinctura zarudnyi  Hartert, 1902 ; est de l'Iran, sud de l'Afghanistan et sud du Pakistan.</t>
